--- a/biology/Écologie/Tim_Lenton/Tim_Lenton.xlsx
+++ b/biology/Écologie/Tim_Lenton/Tim_Lenton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tim Lenton est professeur au sein du Earth system science à l'université d'East Anglia, en Angleterre.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son PhD à l'école d'environnement des sciences, à l'UEA, et travaille sur la régulation des nutriments au sein des océans, en rapport avec l'oxygène contenu dans l'atmosphère ; il est supervisé par Andrew Watson. Il travaille avec James Lovelock, sur le développement de l'hypothèse Gaia comme système auto-régulé. Il participe également à la création de la simulation informatique Daisyworld. De 1998 à 2004 il travaille sur la modélisation du système-Terre au sein du Natural Environment Research Council, au Centre pour l'écologie et l'hydrologie à Édimbourg.
 Andrew Watson et Tim Lenton montrent le maintien d'une composition chimique stable dans le mélange atmosphérique, et notamment le rôle joué par le phosphore.
@@ -543,7 +557,9 @@
           <t>Publications significatives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) C. Goldblatt, T. M. Lenton et A. J. Watson, « Bistability of atmospheric oxygen and the great oxidation », Nature, no 443,‎ 2006, p. 683-686
 (en) Tim Lenton et Andrew Watson, « Regulation of nitrate, phosphate and oxygen in the oceans », Global biogeochemical cycle, vol. 14,‎ 2000, p. 225–248 (lire en ligne)
